--- a/Renesas_Terminology.xlsx
+++ b/Renesas_Terminology.xlsx
@@ -10,10 +10,10 @@
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Tester_J750" sheetId="4" r:id="rId2"/>
     <sheet name="Renesas_Universal" sheetId="3" r:id="rId3"/>
-    <sheet name="Type_Naming" sheetId="5" r:id="rId4"/>
+    <sheet name="Part_Number" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">General!$A$1:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">General!$A$1:$D$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tester_J750!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="682">
   <si>
     <t>...</t>
   </si>
@@ -41,9 +41,6 @@
     <t xml:space="preserve">5. Test Program Naming: </t>
   </si>
   <si>
-    <t>If necessary, cut its length from the LEFT.</t>
-  </si>
-  <si>
     <t>Product(e.g. RX130_256K)_Table(Skt_, V_, T_, etc.)_Usage(Cz, MP, etc.)_Type(DC/AC/Fc, ADC, etc)_Item(Contact, Leak, VIH, etc)_Method(IFVM, VFIM, etc)_Pin(MD, IIC, etc)_ParameterValue(-100uA, -1.5V, etc)</t>
   </si>
   <si>
@@ -359,9 +356,6 @@
     <t>BGR</t>
   </si>
   <si>
-    <t>Band Gap voltage Reference</t>
-  </si>
-  <si>
     <t>CLI</t>
   </si>
   <si>
@@ -525,9 +519,6 @@
   </si>
   <si>
     <t>PRIDES</t>
-  </si>
-  <si>
-    <t>Part number(name?) of Renesas Intergated Description Entry System</t>
   </si>
   <si>
     <t>REOS</t>
@@ -1918,16 +1909,6 @@
     <t>Internal code 1st &amp; 2nd（内部コード倉基、受注型名用、Booking）：　</t>
   </si>
   <si>
-    <t>c16 梱包出荷形態、鍍金（メッキ）仕様など、c17一般、派生、と</t>
-    <rPh sb="26" eb="28">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ハセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Internal code 3rd &amp; 4th（内部コード倉基，生産型名用 Production): Factory code; FE, BE.</t>
   </si>
   <si>
@@ -1944,10 +1925,6 @@
   </si>
   <si>
     <t>W/ specific function like /D*, /H*, /I*, etc.:</t>
-  </si>
-  <si>
-    <t>Renesas katamei(type name): R5 F 10C 8 C A N FP</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>C1~C3</t>
@@ -2112,10 +2089,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C11: characteristic, Development, Temperature</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C12~C14: ROM code</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2136,14 +2109,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Booking katamei(type name): R5 F 10C 8 C A N FP V0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Production(Back-end) katamei(type name): R5 F 10C 8 C A N FP V0 5P</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LCD Display</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2201,10 +2166,6 @@
   </si>
   <si>
     <t>Characteristic code 1, omitted being standard type.  (alphabetic)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P/N</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2685,9 +2646,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Part Name, </t>
-    </r>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -2695,12 +2653,8 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>型名</t>
-    </r>
-    <rPh sb="11" eb="13">
-      <t>カタメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>注文書＆注文番号</t>
+    </r>
   </si>
   <si>
     <r>
@@ -2711,7 +2665,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>注文書＆注文番号</t>
+      <t>型名登録システム</t>
     </r>
   </si>
   <si>
@@ -2723,31 +2677,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>型名登録システム</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
       <t>（新）ルネサス技術情報システム</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>指し図</t>
     </r>
   </si>
   <si>
@@ -3450,10 +3380,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Informal abbreviation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Category</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3548,10 +3474,6 @@
   </si>
   <si>
     <t>FQFP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>QFP</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3605,6 +3527,333 @@
   </si>
   <si>
     <t>oxide Capacitance(per unit area)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If necessary, cut its length from the LEFT.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>包装</t>
+    <rPh sb="0" eb="2">
+      <t>ホウソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P/N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Part Number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型名</t>
+    <rPh sb="0" eb="2">
+      <t>カタメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*_AD_*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADditional</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tape and Reel(emboss)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Catch-All Controls</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wassenaar Agreement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワッセナー・アレンジメント協定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WMD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weapon of Mass Destruction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大量破壊兵器</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Export Administration Regulation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外国為替及び外国貿易法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外為法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がいためほう</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Others</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>System in which authorization is required from the export control authorities for the export of all goods or technologies that may be used in the development of WMD.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CISTEC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Center for Information on Security Trade Controls</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Organization</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fine-pitch QFP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Informal abbreviation)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BandGap voltage Reference</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Part number of Renesas Intergated Description Entry System</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(米国）輸出管理規制</t>
+    <rPh sb="1" eb="3">
+      <t>ベイコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(日本）安全保障貿易情報センター</t>
+    <rPh sb="1" eb="3">
+      <t>ニホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LFQFP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PKG(Package) Renesas</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C16 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>梱包出荷形態、鍍金（メッキ）仕様など、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>C17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一般、派生、と</t>
+    </r>
+    <rPh sb="26" eb="28">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C11: Characteristic, Development, Temperature</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Renesas katamei(part name): R5 F 10C 8 C A N FP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Booking katamei(part name): R5 F 10C 8 C A N FP V0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Production(Back-end) katamei(part name): R5 F 10C 8 C A N FP V0 5P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Working Sample</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Engineering Sample</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Commercial Sample</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倉基</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倉入れ基準</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Moisture Sensitivity Level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>湿気敏感性水準</t>
+    <rPh sb="0" eb="2">
+      <t>シッケ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ビンカンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>スイジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISO/TS 16949</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Technical Specification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FIT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Failure In Time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品の故障率を表す指標および単位の一つで、稼働10億(109)時間あたりの平均故障回数。半導体部品など、大量に生産され故障率が極めて低い工業製品についてよく用いられる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PPM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parts Per Million</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>百萬分率，度量制品不良率用。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指し図</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3733,7 +3982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3761,6 +4010,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4065,419 +4315,584 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="192.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="192.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>593</v>
+        <v>370</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>596</v>
+      <c r="C3" s="1" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>596</v>
+      <c r="C4" s="1" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>545</v>
+        <v>584</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>596</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>594</v>
+        <v>646</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>596</v>
+        <v>647</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>114</v>
+        <v>627</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>591</v>
+        <v>639</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>596</v>
+        <v>641</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>629</v>
+        <v>643</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>543</v>
+        <v>111</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>546</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>544</v>
+        <v>584</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>115</v>
+        <v>614</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>596</v>
+        <v>640</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>618</v>
+        <v>534</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>619</v>
+        <v>537</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>605</v>
+        <v>584</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>581</v>
+        <v>635</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>596</v>
+        <v>639</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>116</v>
+        <v>673</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>594</v>
+        <v>674</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>602</v>
+        <v>586</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>594</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>606</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>120</v>
+        <v>645</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>591</v>
+        <v>640</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>122</v>
+        <v>651</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>599</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>542</v>
+        <v>666</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>596</v>
+        <v>667</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>596</v>
+        <v>115</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>586</v>
+        <v>116</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>596</v>
+        <v>590</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>584</v>
+        <v>620</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>596</v>
+        <v>621</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>678</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>127</v>
+        <v>676</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>128</v>
+        <v>677</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>596</v>
+        <v>679</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>129</v>
+        <v>526</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>130</v>
+        <v>527</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>584</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>628</v>
+        <v>120</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>596</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>533</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>136</v>
+        <v>575</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>137</v>
+        <v>576</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>594</v>
+        <v>584</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>375</v>
+        <v>573</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>376</v>
+        <v>574</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>596</v>
+        <v>584</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D31"/>
+  <autoFilter ref="A1:D42"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4488,8 +4903,8 @@
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4502,605 +4917,605 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -5112,738 +5527,792 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="114.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>662</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>549</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>153</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>603</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>604</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>625</v>
+        <v>165</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>566</v>
+        <v>168</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>174</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>178</v>
+        <v>612</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>184</v>
+        <v>618</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>185</v>
+        <v>625</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>568</v>
+        <v>626</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>451</v>
+        <v>170</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>681</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>569</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>189</v>
+        <v>173</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>191</v>
+        <v>177</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>197</v>
+        <v>448</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>571</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>572</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>573</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>2</v>
+        <v>193</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>211</v>
+      <c r="A56" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>213</v>
-      </c>
+      <c r="A57" s="7"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>215</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>239</v>
+        <v>143</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>367</v>
+        <v>228</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>574</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>3</v>
+        <v>232</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>4</v>
+        <v>236</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>5</v>
+        <v>240</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="1" t="s">
-        <v>7</v>
+      <c r="A81" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>253</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="B87" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>256</v>
+        <v>617</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="B88" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>261</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>8</v>
+        <v>246</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>368</v>
+        <v>251</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>575</v>
+        <v>252</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>576</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>370</v>
+        <v>256</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>578</v>
+        <v>257</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>579</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>262</v>
+        <v>365</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>263</v>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -5855,10 +6324,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C230"/>
+  <dimension ref="A1:C228"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K225" sqref="K225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5870,81 +6339,81 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>484</v>
+        <v>655</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>513</v>
+        <v>656</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>514</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -5952,7 +6421,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -5960,7 +6429,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5968,136 +6437,136 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>507</v>
+        <v>654</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -6105,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -6113,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -6121,7 +6590,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -6129,7 +6598,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -6137,7 +6606,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -6145,7 +6614,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -6153,7 +6622,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -6161,7 +6630,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -6169,7 +6638,7 @@
         <v>8</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -6177,238 +6646,249 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>458</v>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>533</v>
+        <v>50</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>519</v>
+        <v>14</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>51</v>
+        <v>494</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>499</v>
+        <v>18</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>54</v>
+        <v>456</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>55</v>
@@ -6416,759 +6896,743 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>459</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>58</v>
+        <v>457</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>59</v>
+        <v>525</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>460</v>
+        <v>50</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>534</v>
+        <v>14</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>51</v>
+        <v>494</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>61</v>
+        <v>458</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>499</v>
+        <v>18</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>62</v>
+        <v>456</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>461</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>459</v>
+        <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>47</v>
+      <c r="A111" s="3">
+        <v>2</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>67</v>
+        <v>459</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <v>2</v>
-      </c>
-      <c r="B113" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>70</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>532</v>
+        <v>18</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>421</v>
+        <v>20</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>463</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>19</v>
+        <v>461</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>70</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A127" s="6" t="s">
-        <v>430</v>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>527</v>
+      <c r="A129" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>423</v>
+      <c r="A132" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="B135" s="1" t="s">
+      <c r="A134" s="3">
+        <v>101</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
-        <v>101</v>
-      </c>
-      <c r="B136" s="1" t="s">
+      <c r="A136" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>8</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
-        <v>8</v>
-      </c>
-      <c r="B139" s="1" t="s">
+      <c r="A138" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>467</v>
+      <c r="A142" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>499</v>
+        <v>18</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B146" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B147" s="1" t="s">
+      <c r="A147" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="B154" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>473</v>
+      <c r="A159" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>81</v>
+        <v>439</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>474</v>
+        <v>440</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="4"/>
-      <c r="B169" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4"/>
+      <c r="B167" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
         <v>3</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>414</v>
+      <c r="B170" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>4</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
-        <v>4</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>415</v>
+      <c r="A173" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>12</v>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>479</v>
+        <v>83</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>87</v>
+        <v>476</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>480</v>
+        <v>93</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>13</v>
+        <v>478</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>482</v>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>1</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
-        <v>452</v>
+      <c r="A194" s="3">
+        <v>2</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>524</v>
+        <v>100</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
-        <v>3</v>
-      </c>
-      <c r="B197" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
-        <v>4</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>483</v>
+        <v>14</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>51</v>
+        <v>518</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="B203" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A206" s="6" t="s">
-        <v>607</v>
+    <row r="204" spans="1:2" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A204" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="3" t="s">
-        <v>608</v>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>416</v>
+        <v>597</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>609</v>
+        <v>433</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>439</v>
+        <v>598</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="3" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>539</v>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="3" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>

--- a/Renesas_Terminology.xlsx
+++ b/Renesas_Terminology.xlsx
@@ -8,20 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
-    <sheet name="Tester_J750" sheetId="4" r:id="rId2"/>
+    <sheet name="JEITA_ED-7303C" sheetId="6" r:id="rId2"/>
     <sheet name="Renesas_Universal" sheetId="3" r:id="rId3"/>
     <sheet name="Part_Number" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">General!$A$1:$D$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tester_J750!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">General!$A$1:$D$131</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="860">
   <si>
     <t>...</t>
   </si>
@@ -29,24 +28,12 @@
     <t>1. Organizations:</t>
   </si>
   <si>
-    <t>3. Microcontroller:</t>
-  </si>
-  <si>
-    <t>REGC(REGulator)</t>
-  </si>
-  <si>
-    <t>4. Pin:</t>
-  </si>
-  <si>
     <t xml:space="preserve">5. Test Program Naming: </t>
   </si>
   <si>
     <t>Product(e.g. RX130_256K)_Table(Skt_, V_, T_, etc.)_Usage(Cz, MP, etc.)_Type(DC/AC/Fc, ADC, etc)_Item(Contact, Leak, VIH, etc)_Method(IFVM, VFIM, etc)_Pin(MD, IIC, etc)_ParameterValue(-100uA, -1.5V, etc)</t>
   </si>
   <si>
-    <t>Tstation:</t>
-  </si>
-  <si>
     <t>Renesas type name</t>
   </si>
   <si>
@@ -386,12 +373,6 @@
     <t>Systems, Applications &amp; Products</t>
   </si>
   <si>
-    <t>SCI</t>
-  </si>
-  <si>
-    <t>Serial Communication Interface</t>
-  </si>
-  <si>
     <t>STDF</t>
   </si>
   <si>
@@ -416,9 +397,6 @@
     <t>WT</t>
   </si>
   <si>
-    <t>Straight Probe</t>
-  </si>
-  <si>
     <t>w/</t>
   </si>
   <si>
@@ -443,9 +421,6 @@
     <t>WF</t>
   </si>
   <si>
-    <t>Work Flow</t>
-  </si>
-  <si>
     <t>BI</t>
   </si>
   <si>
@@ -647,9 +622,6 @@
     <t>ED</t>
   </si>
   <si>
-    <t>Electronic Description</t>
-  </si>
-  <si>
     <t>HLFG</t>
   </si>
   <si>
@@ -728,9 +700,6 @@
     <t>TSCAP</t>
   </si>
   <si>
-    <t>Connect to the VSS via a decoupling capacitor (10 nF) for stabilizing the internal voltage</t>
-  </si>
-  <si>
     <t>TSN</t>
   </si>
   <si>
@@ -779,9 +748,6 @@
     <t>Func</t>
   </si>
   <si>
-    <t>Fc</t>
-  </si>
-  <si>
     <t>Functional test</t>
   </si>
   <si>
@@ -815,9 +781,6 @@
     <t>BPMU</t>
   </si>
   <si>
-    <t>Board Parametric Measurment Unit</t>
-  </si>
-  <si>
     <t>ctn</t>
   </si>
   <si>
@@ -914,9 +877,6 @@
     <t>RFIO</t>
   </si>
   <si>
-    <t>Radio Frequency IO</t>
-  </si>
-  <si>
     <t>Tdelay</t>
   </si>
   <si>
@@ -1232,29 +1192,6 @@
   </si>
   <si>
     <t>J750 output data naming</t>
-  </si>
-  <si>
-    <t>J750 test program output window</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>J750 edgeset memory: D0~D3, R0, R1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>J750 drive formats</t>
-  </si>
-  <si>
-    <t>Specifications</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Pin Parametric Measurement Unit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PPMU/PinPMU</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -2295,19 +2232,6 @@
         <charset val="128"/>
       </rPr>
       <t>組み立て</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>裸晶</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -2825,40 +2749,6 @@
   </si>
   <si>
     <r>
-      <t>LSI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の内部動作電圧の安定化用端子です。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>VCL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>端子には、内部電圧安定用のコンデンサを接続する必要があります。</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Reject </t>
     </r>
     <r>
@@ -3331,19 +3221,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表面実装技術</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ギジュツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3376,18 +3253,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Opcode of assembly language</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Category</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Language</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SAP Ariba</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3404,10 +3269,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Organization</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Assy</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3417,10 +3278,6 @@
   </si>
   <si>
     <t>No Connect, Not Covered, No Change</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">WP &amp; WT: Kumamoto Kawajiri Factory(MF3 Line) </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3511,10 +3368,6 @@
   </si>
   <si>
     <t>R/O</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Statistical Bin Limit</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3550,13 +3403,6 @@
   </si>
   <si>
     <t>Part Number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>型名</t>
-    <rPh sb="0" eb="2">
-      <t>カタメイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3633,14 +3479,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Others</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Electronics</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>System in which authorization is required from the export control authorities for the export of all goods or technologies that may be used in the development of WMD.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3650,10 +3488,6 @@
   </si>
   <si>
     <t>Center for Information on Security Trade Controls</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Organization</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3688,10 +3522,6 @@
   </si>
   <si>
     <t>LFQFP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PKG(Package) Renesas</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3756,26 +3586,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Working Sample</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ES</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Engineering Sample</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CS</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Commercial Sample</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>倉基</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3789,10 +3607,6 @@
   </si>
   <si>
     <t>Moisture Sensitivity Level</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Electronics</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3841,19 +3655,952 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>百萬分率，度量制品不良率用。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Instructions,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>指し図</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WP &amp; WT: Kumamoto Kawashiri Factory(MF3 Line) </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裸晶;金型（かながた）</t>
+    <rPh sb="3" eb="5">
+      <t>カナガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DUA9-xxxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VUA9-xxxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mass Production</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Trial Manufacture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Room Tmperature</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>室温</t>
+    <rPh sb="0" eb="2">
+      <t>シツオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Statistical Bin Limit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A wafer-level screen that uses a statistical method to determine the typical fallout level of each bin at unit probe.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Straight Probe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>High Tmperature</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Low Temperature</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低温</t>
+    <rPh sb="0" eb="2">
+      <t>テイオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高温</t>
+    <rPh sb="0" eb="2">
+      <t>コウオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Work Flow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Commercial Sample. Full test coverage. RT/HT/LT. Burn in/HV stress test. Assembly &amp; test in MP line. Electrical characteristics qualified. Reliability qualified.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Engineering Sample. High test coverage. RT/HT/LT or RT with guard band. NO burn in/HV stress test. NO assembly &amp; test in MP line. Electrical characteristics qualified. Reliability NOT qualified.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Working Sample. Basic test. RT. NO burn in/HV stress test. NO assembly &amp; test in MP line. Electrical characteristics NOT qualified. Reliability NOT qualified.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Package Code is constructed by 6 items, maximum of 30 letters.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ceramics</t>
+  </si>
+  <si>
+    <t>A package made of multi-layer ceramics</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Plastics</t>
+  </si>
+  <si>
+    <t>Sillcon</t>
+  </si>
+  <si>
+    <t>Tape</t>
+  </si>
+  <si>
+    <t>For BGA and LGA,"T"denotes the package substrate made of tape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A glass-sealed ceramic package</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A package made of metallic material</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A package made of plastics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>For BGA and LGA,"p"denotes the package substrate made of PWB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A package made of sillcon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A package made of tape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Specific feature</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>Basic package</t>
+  </si>
+  <si>
+    <t>Outline addition</t>
+  </si>
+  <si>
+    <t>Heat Sink</t>
+  </si>
+  <si>
+    <t>Heat sink</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>Piggyback</t>
+  </si>
+  <si>
+    <t>Seated height</t>
+  </si>
+  <si>
+    <t>Low profile</t>
+  </si>
+  <si>
+    <t>Thin</t>
+  </si>
+  <si>
+    <t>Maximum seated height, 1.00mm &lt; T &lt;= 1.20mm</t>
+  </si>
+  <si>
+    <t>Very thin</t>
+  </si>
+  <si>
+    <t>Very-Very thin</t>
+  </si>
+  <si>
+    <t>Maximum seated height, 0.65mm &lt; W &lt;= 0.80mm</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Ultra thin</t>
+  </si>
+  <si>
+    <t>Maximum seated height, 0.50mm &lt; U &lt;= 0.65mm</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Extremely thin</t>
+  </si>
+  <si>
+    <t>Maximum seated height, X &lt;= 0.50mm</t>
+  </si>
+  <si>
+    <t>Terminal pitch or terminal position</t>
+  </si>
+  <si>
+    <t>Shrink</t>
+  </si>
+  <si>
+    <t>Shrink pitch of basic package(only used for SOP, DIP, ZIP, PGA)</t>
+  </si>
+  <si>
+    <t>Fine pitch</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Interstitial</t>
+  </si>
+  <si>
+    <t>Package with terminal other than grid array(only used for PGA, BGA, LGA)</t>
+  </si>
+  <si>
+    <t>Lead protection</t>
+  </si>
+  <si>
+    <t>Bumper</t>
+  </si>
+  <si>
+    <t>with bumper</t>
+  </si>
+  <si>
+    <t>Guard Ring</t>
+  </si>
+  <si>
+    <t>with Guard Ring</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Retain</t>
+  </si>
+  <si>
+    <t>with Retain</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Applicable to</t>
+  </si>
+  <si>
+    <t>JEITA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(日本）電子情報技術産業協会</t>
+    <rPh sb="4" eb="6">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サンギョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Functional classification</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meaning</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. Material code of package body: 1st, 1 letter.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. Dashline "-"(Fixed): 2nd, 1 letter.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. Package specific feature code: 3rd ~ 5th, maximum of 3 letters.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. Basic package name code: 6th ~ 8th</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Basic package name</t>
+  </si>
+  <si>
+    <t>Quad Flat Package</t>
+  </si>
+  <si>
+    <t>QFI</t>
+  </si>
+  <si>
+    <t>Quad Flat I-Leaded Package</t>
+  </si>
+  <si>
+    <t>QFJ</t>
+  </si>
+  <si>
+    <t>Quad Flat J-Leaded Package</t>
+  </si>
+  <si>
+    <t>QFF</t>
+  </si>
+  <si>
+    <t>Quad Flat F-Leaded Package</t>
+  </si>
+  <si>
+    <t>QFN</t>
+  </si>
+  <si>
+    <t>Quad Flat No Lead Package</t>
+  </si>
+  <si>
+    <t>Small Outline Package</t>
+  </si>
+  <si>
+    <t>SOI</t>
+  </si>
+  <si>
+    <t>Small Outline I-Leaded Package</t>
+  </si>
+  <si>
+    <t>SOJ</t>
+  </si>
+  <si>
+    <t>Small Outline J-Leaded Package</t>
+  </si>
+  <si>
+    <t>SOF</t>
+  </si>
+  <si>
+    <t>Small Outline F-Leaded Package</t>
+  </si>
+  <si>
+    <t>SON</t>
+  </si>
+  <si>
+    <t>Small Outline No Lead Package</t>
+  </si>
+  <si>
+    <t>DIP</t>
+  </si>
+  <si>
+    <t>Dual Inline Package</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SIP</t>
+  </si>
+  <si>
+    <t>Single Inline Package</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>Zigzag Inline Package</t>
+  </si>
+  <si>
+    <t>SVP</t>
+  </si>
+  <si>
+    <t>Surface Vertical Package</t>
+  </si>
+  <si>
+    <t>PGA</t>
+  </si>
+  <si>
+    <t>Pin Grid Array Package</t>
+  </si>
+  <si>
+    <t>LGA</t>
+  </si>
+  <si>
+    <t>Land Grid Array Package</t>
+  </si>
+  <si>
+    <t>Ball Grid Array Package</t>
+  </si>
+  <si>
+    <t>DTP</t>
+  </si>
+  <si>
+    <t>Dual Tape Carrier Package</t>
+  </si>
+  <si>
+    <t>QTP</t>
+  </si>
+  <si>
+    <t>Quad Tape Carrier Package</t>
+  </si>
+  <si>
+    <t>5. Package terminal number code: 9th ~ 13th. "28/26" means 28 pins missing 2 terminals.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6. Dashline "-"(Fixed): 14th, 1 letter.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7. Package nominal dimension code: 15th ~ 25th.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8. Dashline "-"(Fixed): 26th, 1 letter.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9. Terminal in-line interval code: 27th ~ 30th.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P-TSOP(1)32-10×12.4-1.27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P-SOP28-10.03×19.05-1.27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Example: </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Low-profile Fine-pitch QFP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maximum seated height, 1.20mm &lt; L &lt;= 1.70mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maximum seated height, 0.80mm &lt; V &lt;= 1.00mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Terminal pitch is 0.8mm or less.(only used for BGA, LGA) Terminal pitch is 0.5mm or less. (only used for QFP)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Japan Electronics and Information Technology industries Association</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ELC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Event Link Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MPC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Multi-function Pin Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MTU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Multi-function Timer Unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Port Output Enable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CMT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Compare Match Timer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IWDT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Independent WatchDog Timer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LPT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lower Power Timer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TMR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TiMeR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DMIPS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dhrystone Million Instructions Per Second</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A measure of computer performance relative to the performance of the DEC VAX 11/780 minicomputer of the 1970s.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Piggyback</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UA94</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Q2A 105</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UD94</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Q2A 85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UM91</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Q2B 85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REGulator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REGC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. Pin:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Serial Communication Interface</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Universal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Opcode of assembly language</t>
+  </si>
+  <si>
+    <t>Fc, Functional</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tags</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics, Semiconductor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics, Semiconductor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics, Microcontroller, PinName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics, Microcontroller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PKG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Package</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics, Semiconductor, Test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics, Microcontroller, Opcode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型名（かためい）</t>
+    <rPh sb="0" eb="2">
+      <t>カタメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teradyne J750 drive formats</t>
+  </si>
+  <si>
+    <t>Teradyne J750 drive formats</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teradyne J750</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teradyne J750 test program output window</t>
+  </si>
+  <si>
+    <t>Teradyne J750 edgeset memory: D0~D3, R0, R1</t>
+  </si>
+  <si>
+    <t>Electronics, Semiconductor, Test, DriveFormat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teradyne J750 specifications</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics, Semiconductor, Test, TeradyneJ750</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Radio Frequency IO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Electronics</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Electronics</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>百萬分率，度量制品不良率用。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>指し図</t>
+    <t>Electronics, Semiconductor, Test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics, Semiconductor, Package</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Universal, Language</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Universal, Organization</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Universal, Electronics, Semiconductor, Test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics, Semiconductor, Production</t>
+  </si>
+  <si>
+    <t>Electronics, Semiconductor, Production</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics, Semiconductor, Production</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics, Semiconductor, Production, Package</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PKG(Package). Terminal pitch is 0.5mm or less.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PKG(Package). Maximum seated height 1.20mm &lt; L &lt;= 1.70mm.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PKG(Package). Maximum seated height 1.20mm &lt; L &lt;= 1.70mm, terminal pitch is 0.5mm or less.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PKG(Package). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表面実装技術</t>
+    </r>
+    <rPh sb="14" eb="16">
+      <t>ヒョウメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ギジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PPMU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PinPMU, Pin Parametric Measurement Unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teradyne J750 Hardware </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ハード</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Teradyne J750 Software ソフト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics, Semiconductor, Test, Teradyne J750</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.Tstation:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J750 output data naming</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Renesas MCU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronic Description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Renesas MCU. Connect to the VSS via a decoupling capacitor (10 nF) for stabilizing the internal voltage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Renesas MCU. LSI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の内部動作電圧の安定化用端子です。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>VCL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>端子には、内部電圧安定用のコンデンサを接続する必要があります。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BFA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Buffer(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>バッファ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Baffaa)</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3982,7 +4729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4011,9 +4758,42 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4028,8 +4808,51 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>637411</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>37929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10677525" y="0"/>
+          <a:ext cx="6114286" cy="1371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4315,584 +5138,1824 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="192.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>581</v>
+        <v>814</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>583</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>250</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>584</v>
+        <v>831</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>584</v>
+        <v>815</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>588</v>
+        <v>562</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>584</v>
+        <v>840</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>550</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>109</v>
+        <v>551</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>582</v>
+        <v>835</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>646</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>571</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>572</v>
+        <v>615</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>593</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>647</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>584</v>
+        <v>836</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>627</v>
+        <v>307</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>639</v>
+        <v>831</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>641</v>
+        <v>827</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>642</v>
+        <v>252</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>643</v>
+        <v>281</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>650</v>
+        <v>821</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>584</v>
+        <v>817</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>580</v>
+        <v>854</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>614</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>640</v>
+        <v>811</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>534</v>
+        <v>611</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>537</v>
+        <v>612</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>535</v>
+        <v>837</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>634</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>635</v>
+        <v>108</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>649</v>
+        <v>822</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>673</v>
+        <v>193</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>674</v>
+        <v>194</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>675</v>
+        <v>817</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>113</v>
+        <v>257</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>586</v>
+        <v>258</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>584</v>
+        <v>831</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>538</v>
+        <v>849</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>606</v>
+        <v>789</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>645</v>
+        <v>790</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>640</v>
+        <v>817</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>593</v>
+        <v>854</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>569</v>
+        <v>325</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>570</v>
+        <v>326</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>584</v>
+        <v>831</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>593</v>
+        <v>828</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>651</v>
+        <v>323</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>584</v>
+        <v>831</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>652</v>
+        <v>828</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>666</v>
+        <v>255</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>667</v>
+        <v>256</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>669</v>
+        <v>831</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>115</v>
+        <v>254</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>582</v>
+        <v>831</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>300</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>590</v>
+        <v>301</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>582</v>
+        <v>831</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>620</v>
+        <v>261</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>621</v>
+        <v>262</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>622</v>
+        <v>831</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>797</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>118</v>
+        <v>798</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>678</v>
+        <v>818</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>580</v>
+        <v>799</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>676</v>
+        <v>259</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>677</v>
+        <v>260</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>680</v>
+        <v>831</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>526</v>
+        <v>197</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>527</v>
+        <v>198</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>584</v>
+        <v>817</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>593</v>
+        <v>854</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>119</v>
+        <v>338</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>120</v>
+        <v>339</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>587</v>
+        <v>829</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>539</v>
+        <v>825</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>533</v>
+        <v>342</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>613</v>
+        <v>343</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>584</v>
+        <v>851</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>121</v>
+        <v>340</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>341</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>584</v>
+        <v>851</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>575</v>
+        <v>239</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>576</v>
+        <v>316</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>577</v>
+        <v>831</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>573</v>
+        <v>317</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>574</v>
+        <v>318</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>578</v>
+        <v>831</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>319</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>124</v>
+        <v>320</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>584</v>
+        <v>831</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>125</v>
+        <v>321</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>126</v>
+        <v>322</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>584</v>
+        <v>831</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>580</v>
+        <v>828</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>127</v>
+        <v>314</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>128</v>
+        <v>315</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>584</v>
+        <v>831</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>129</v>
+        <v>312</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>615</v>
+        <v>313</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>584</v>
+        <v>831</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>670</v>
+        <v>263</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>672</v>
+        <v>264</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>831</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>671</v>
+        <v>826</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>628</v>
+        <v>199</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>629</v>
+        <v>855</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>630</v>
+        <v>817</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>631</v>
+        <v>781</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>632</v>
+        <v>782</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>633</v>
+        <v>817</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>130</v>
+        <v>605</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>131</v>
+        <v>811</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>132</v>
+        <v>636</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>133</v>
+        <v>637</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>646</v>
+        <v>834</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>135</v>
+        <v>561</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>582</v>
+        <v>834</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>646</v>
+        <v>518</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>372</v>
+        <v>579</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>373</v>
+        <v>613</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>584</v>
+        <v>835</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>374</v>
+        <v>843</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>638</v>
+      <c r="A43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>587</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>636</v>
+      <c r="B72" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>857</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D42"/>
+  <autoFilter ref="A1:D131">
+    <sortState ref="A2:D131">
+      <sortCondition ref="B1:B48"/>
+    </sortState>
+  </autoFilter>
+  <dataConsolidate/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4900,643 +6963,648 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="6.75" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>594</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B57" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="17" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="17" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="17" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="17" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>670</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="15" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>672</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="15" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="17" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>682</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>397</v>
+      <c r="B21" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="D21" s="22">
+        <v>1</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="D24" s="22">
+        <v>2</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="D30" s="22">
+        <v>3</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>709</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>713</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="D33" s="22">
+        <v>4</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>717</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>730</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="22"/>
+      <c r="B39" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="22"/>
+      <c r="B40" s="21" t="s">
+        <v>735</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="22"/>
+      <c r="B41" s="21" t="s">
+        <v>737</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="22"/>
+      <c r="B42" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="22"/>
+      <c r="B44" s="21" t="s">
+        <v>742</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="22"/>
+      <c r="B45" s="21" t="s">
+        <v>744</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="22"/>
+      <c r="B46" s="21" t="s">
+        <v>746</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="22"/>
+      <c r="B47" s="21" t="s">
+        <v>748</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="22"/>
+      <c r="B48" s="21" t="s">
+        <v>750</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="22"/>
+      <c r="B50" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="22"/>
+      <c r="B51" s="21" t="s">
+        <v>757</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="22"/>
+      <c r="B53" s="21" t="s">
+        <v>761</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="22"/>
+      <c r="B54" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="22"/>
+      <c r="B56" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="17" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="17" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="17" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="17" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="17" t="s">
+        <v>772</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
+  <mergeCells count="17">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="D24:D29"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="114.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="183.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.5" style="1" bestFit="1" customWidth="1"/>
@@ -5545,774 +7613,745 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>858</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>859</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>662</v>
+        <v>130</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>663</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>139</v>
+        <v>626</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>664</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>658</v>
+        <v>248</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>659</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>540</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>151</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>591</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>592</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="B20" s="1" t="s">
-        <v>157</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>522</v>
+      <c r="B21" s="1" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>541</v>
+        <v>146</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>542</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>543</v>
+        <v>148</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>544</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>546</v>
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>548</v>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>549</v>
+        <v>525</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>623</v>
+        <v>527</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>159</v>
+        <v>594</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>551</v>
+        <v>595</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B42" s="13" t="s">
-        <v>681</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="1" t="s">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="C52" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E44" s="1" t="s">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B45" s="1" t="s">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B46" s="1" t="s">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>219</v>
-      </c>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>221</v>
-      </c>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>240</v>
+        <v>352</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>241</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>3</v>
+        <v>353</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>4</v>
+        <v>355</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>242</v>
+        <v>356</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>243</v>
+        <v>547</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>5</v>
+        <v>853</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="B87" s="1" t="s">
-        <v>617</v>
+        <v>372</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="B88" s="1" t="s">
-        <v>6</v>
+        <v>374</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>245</v>
+        <v>379</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>246</v>
+        <v>362</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>247</v>
+        <v>363</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>248</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>249</v>
+        <v>365</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>250</v>
+        <v>364</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>251</v>
+        <v>366</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>252</v>
+        <v>367</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>253</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>254</v>
+        <v>368</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>255</v>
+        <v>369</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>256</v>
+        <v>371</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>257</v>
+        <v>370</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>258</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>260</v>
+        <v>646</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -6326,8 +8365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C228"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K225" sqref="K225"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6339,81 +8378,81 @@
   <sheetData>
     <row r="1" spans="1:2" s="5" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>607</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -6421,7 +8460,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6429,7 +8468,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -6437,136 +8476,136 @@
         <v>9</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -6574,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -6582,7 +8621,7 @@
         <v>1</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -6590,7 +8629,7 @@
         <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -6598,7 +8637,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -6606,7 +8645,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -6614,7 +8653,7 @@
         <v>5</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -6622,7 +8661,7 @@
         <v>6</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -6630,7 +8669,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -6638,7 +8677,7 @@
         <v>8</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -6646,358 +8685,358 @@
         <v>9</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -7005,125 +9044,125 @@
         <v>2</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -7131,15 +9170,15 @@
         <v>101</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -7147,205 +9186,205 @@
         <v>8</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
     </row>
     <row r="166" spans="1:2" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
     </row>
     <row r="167" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="1" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
     </row>
     <row r="169" spans="1:2" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -7353,7 +9392,7 @@
         <v>3</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -7361,117 +9400,117 @@
         <v>4</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -7479,7 +9518,7 @@
         <v>1</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -7487,7 +9526,7 @@
         <v>2</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -7495,7 +9534,7 @@
         <v>3</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -7508,28 +9547,28 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>0</v>
@@ -7537,102 +9576,102 @@
     </row>
     <row r="204" spans="1:2" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
-        <v>598</v>
+        <v>571</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
-        <v>602</v>
+        <v>575</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
-        <v>604</v>
+        <v>577</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
-        <v>605</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>

--- a/Renesas_Terminology.xlsx
+++ b/Renesas_Terminology.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">General!$A$1:$D$131</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="884">
   <si>
     <t>...</t>
   </si>
@@ -3640,10 +3641,6 @@
   </si>
   <si>
     <t>Failure In Time</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>製品の故障率を表す指標および単位の一つで、稼働10億(109)時間あたりの平均故障回数。半導体部品など、大量に生産され故障率が極めて低い工業製品についてよく用いられる。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4601,6 +4598,394 @@
       </rPr>
       <t>Baffaa)</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics, Microcontroller, PinName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品の故障率を表す指標および単位の一つで、稼働10億(109)時間あたりの平均故障回数。半導体部品など、大量に生産され故障率が極めて低い工業製品についてよく用いられる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tTICW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics, Semiconductor, Test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Electronics, Microcontroller, Test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timer Input Capture Width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インプットキャプチャ入力パルス幅。tTICW=tpcyc+tSU+tH, 単位：ns。tTICW=1+(tSU+tH)/tpcyc, 単位：Tpcyc。</t>
+    <rPh sb="37" eb="39">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7.J750 output data naming</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8.Miscellaneous</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CLKSn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CLKRn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RTCSn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Tstation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CLocK Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>番目）の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Timing Edge </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Tstation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>CLocK Reset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>番目）の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Timing Edge</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>RealTime Clock Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>番目）の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Timing Edge</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RTCRn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>RealTime Clock Reset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>番目）の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Timing Edge</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>IO driver enable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Timing Edge</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IOCS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>IO driver disable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Timing Edge</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IOCR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STBS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>edge/window STroBe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の開始の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Timing Edge</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STBR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>edge/window STroBe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の終了の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Timing Edge</t>
+    </r>
+    <rPh sb="19" eb="21">
+      <t>シュウリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4782,14 +5167,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5138,11 +5523,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5162,7 +5547,7 @@
         <v>357</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>358</v>
@@ -5187,10 +5572,10 @@
         <v>251</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5201,7 +5586,7 @@
         <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5212,7 +5597,7 @@
         <v>563</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>517</v>
@@ -5226,7 +5611,7 @@
         <v>551</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>566</v>
@@ -5251,7 +5636,7 @@
         <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>614</v>
@@ -5265,10 +5650,10 @@
         <v>307</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5279,10 +5664,10 @@
         <v>281</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5293,10 +5678,10 @@
         <v>196</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5304,7 +5689,7 @@
         <v>598</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>610</v>
@@ -5318,7 +5703,7 @@
         <v>612</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>618</v>
@@ -5332,10 +5717,10 @@
         <v>108</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5346,10 +5731,10 @@
         <v>194</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5360,24 +5745,24 @@
         <v>258</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>790</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5388,10 +5773,10 @@
         <v>326</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5402,10 +5787,10 @@
         <v>324</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5416,10 +5801,10 @@
         <v>256</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5430,10 +5815,10 @@
         <v>254</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5444,10 +5829,10 @@
         <v>301</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5458,24 +5843,24 @@
         <v>262</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>798</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5486,10 +5871,10 @@
         <v>260</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5500,10 +5885,10 @@
         <v>198</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5514,10 +5899,10 @@
         <v>339</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5528,10 +5913,10 @@
         <v>343</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5542,10 +5927,10 @@
         <v>341</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5556,10 +5941,10 @@
         <v>316</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5570,10 +5955,10 @@
         <v>318</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5584,10 +5969,10 @@
         <v>320</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5598,10 +5983,10 @@
         <v>322</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5612,10 +5997,10 @@
         <v>315</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5626,10 +6011,10 @@
         <v>313</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5640,10 +6025,10 @@
         <v>264</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5651,27 +6036,27 @@
         <v>199</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>782</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5682,7 +6067,7 @@
         <v>606</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>617</v>
@@ -5696,10 +6081,10 @@
         <v>637</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>638</v>
+        <v>860</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5710,7 +6095,7 @@
         <v>561</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>518</v>
@@ -5724,10 +6109,10 @@
         <v>613</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5738,7 +6123,7 @@
         <v>587</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5749,10 +6134,10 @@
         <v>266</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5763,24 +6148,24 @@
         <v>201</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>657</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5791,7 +6176,7 @@
         <v>360</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>361</v>
@@ -5805,24 +6190,24 @@
         <v>268</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>792</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -5833,24 +6218,24 @@
         <v>203</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>722</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -5861,10 +6246,10 @@
         <v>272</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -5875,24 +6260,24 @@
         <v>311</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>659</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -5903,10 +6288,10 @@
         <v>270</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -5917,24 +6302,24 @@
         <v>205</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>794</v>
-      </c>
       <c r="C57" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -5942,13 +6327,13 @@
         <v>619</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -5959,10 +6344,10 @@
         <v>549</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -5973,10 +6358,10 @@
         <v>207</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -5987,10 +6372,10 @@
         <v>274</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -6001,7 +6386,7 @@
         <v>631</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D62" s="7" t="s">
         <v>632</v>
@@ -6009,30 +6394,30 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>784</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>786</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>817</v>
+        <v>859</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -6043,7 +6428,7 @@
         <v>564</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -6054,10 +6439,10 @@
         <v>332</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -6068,7 +6453,7 @@
         <v>111</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -6079,10 +6464,10 @@
         <v>215</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -6093,18 +6478,18 @@
         <v>588</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>820</v>
-      </c>
       <c r="C70" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>566</v>
@@ -6118,24 +6503,24 @@
         <v>593</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>640</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -6146,10 +6531,10 @@
         <v>276</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -6160,10 +6545,10 @@
         <v>280</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -6174,24 +6559,24 @@
         <v>278</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>848</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -6202,10 +6587,10 @@
         <v>114</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -6216,10 +6601,10 @@
         <v>211</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -6230,24 +6615,24 @@
         <v>209</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>788</v>
-      </c>
       <c r="C80" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -6258,10 +6643,10 @@
         <v>581</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -6272,10 +6657,10 @@
         <v>213</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -6286,10 +6671,10 @@
         <v>213</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -6300,7 +6685,7 @@
         <v>508</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>566</v>
@@ -6314,10 +6699,10 @@
         <v>220</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -6328,10 +6713,10 @@
         <v>218</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -6339,10 +6724,10 @@
         <v>284</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -6353,24 +6738,24 @@
         <v>222</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -6381,10 +6766,10 @@
         <v>283</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -6395,10 +6780,10 @@
         <v>305</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -6409,10 +6794,10 @@
         <v>328</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -6423,10 +6808,10 @@
         <v>330</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -6437,10 +6822,10 @@
         <v>334</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -6451,24 +6836,24 @@
         <v>294</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D96" s="7" t="s">
         <v>650</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -6479,7 +6864,7 @@
         <v>558</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>557</v>
@@ -6487,16 +6872,16 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -6507,10 +6892,10 @@
         <v>120</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -6521,10 +6906,10 @@
         <v>303</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -6535,10 +6920,10 @@
         <v>290</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -6549,10 +6934,10 @@
         <v>309</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -6563,7 +6948,7 @@
         <v>118</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -6571,13 +6956,13 @@
         <v>514</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -6588,10 +6973,10 @@
         <v>292</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -6602,7 +6987,7 @@
         <v>555</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D106" s="7" t="s">
         <v>556</v>
@@ -6616,10 +7001,10 @@
         <v>553</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -6630,10 +7015,10 @@
         <v>398</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -6644,10 +7029,10 @@
         <v>396</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -6658,10 +7043,10 @@
         <v>397</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -6672,7 +7057,7 @@
         <v>116</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>519</v>
@@ -6686,7 +7071,7 @@
         <v>635</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>634</v>
@@ -6700,7 +7085,7 @@
         <v>122</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -6711,10 +7096,10 @@
         <v>286</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -6725,24 +7110,24 @@
         <v>288</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>796</v>
-      </c>
       <c r="C116" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -6753,10 +7138,10 @@
         <v>227</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -6767,10 +7152,10 @@
         <v>224</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -6781,10 +7166,10 @@
         <v>229</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -6795,10 +7180,10 @@
         <v>296</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -6809,10 +7194,10 @@
         <v>231</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -6823,10 +7208,10 @@
         <v>299</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -6837,10 +7222,10 @@
         <v>560</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>834</v>
+        <v>862</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -6851,7 +7236,7 @@
         <v>600</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D124" s="7" t="s">
         <v>601</v>
@@ -6865,7 +7250,7 @@
         <v>603</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D125" s="7" t="s">
         <v>604</v>
@@ -6879,7 +7264,7 @@
         <v>126</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>614</v>
@@ -6893,7 +7278,7 @@
         <v>128</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>614</v>
@@ -6907,7 +7292,7 @@
         <v>609</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>607</v>
@@ -6918,10 +7303,10 @@
         <v>515</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>516</v>
@@ -6932,10 +7317,10 @@
         <v>225</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -6943,10 +7328,24 @@
         <v>351</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -6982,47 +7381,47 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F1" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F3" s="17" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F4" s="17" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F5" s="17" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>720</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>721</v>
-      </c>
       <c r="F7" s="17" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>667</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -7030,10 +7429,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7041,28 +7440,28 @@
         <v>26</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>669</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>670</v>
-      </c>
-      <c r="C11" s="15" t="s">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="15" t="s">
         <v>677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="15" t="s">
-        <v>678</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -7070,70 +7469,70 @@
         <v>34</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>671</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="24" t="s">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="15" t="s">
         <v>672</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="15" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F17" s="17" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>682</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>725</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>683</v>
-      </c>
       <c r="D19" s="14" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>686</v>
-      </c>
       <c r="D20" s="14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7141,16 +7540,16 @@
         <v>347</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>688</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="D21" s="22">
+      <c r="D21" s="24">
         <v>1</v>
       </c>
-      <c r="E21" s="22" t="s">
-        <v>687</v>
+      <c r="E21" s="24" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7158,42 +7557,42 @@
         <v>12</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>690</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+        <v>689</v>
+      </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>800</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+        <v>799</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>777</v>
-      </c>
-      <c r="D24" s="22">
+        <v>776</v>
+      </c>
+      <c r="D24" s="24">
         <v>2</v>
       </c>
-      <c r="E24" s="22" t="s">
-        <v>692</v>
+      <c r="E24" s="24" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -7201,81 +7600,81 @@
         <v>36</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>694</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>695</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>778</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+        <v>777</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>697</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>698</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>699</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>700</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>701</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>702</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>703</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>704</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>706</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="D30" s="22">
+      <c r="D30" s="24">
         <v>3</v>
       </c>
-      <c r="E30" s="22" t="s">
-        <v>705</v>
+      <c r="E30" s="24" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -7283,42 +7682,42 @@
         <v>16</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>779</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
+        <v>778</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="B32" s="15" t="s">
         <v>709</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>710</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>711</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>714</v>
-      </c>
-      <c r="D33" s="22">
+      <c r="D33" s="24">
         <v>4</v>
       </c>
-      <c r="E33" s="22" t="s">
-        <v>712</v>
+      <c r="E33" s="24" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -7326,254 +7725,249 @@
         <v>18</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>716</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>718</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>719</v>
-      </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>681</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>730</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>682</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>731</v>
-      </c>
       <c r="F37" s="17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="21" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="21" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="21" t="s">
+      <c r="C39" s="21" t="s">
         <v>733</v>
       </c>
-      <c r="C39" s="21" t="s">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="21" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="21" t="s">
+      <c r="C40" s="21" t="s">
         <v>735</v>
       </c>
-      <c r="C40" s="21" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="21" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="21" t="s">
+      <c r="C41" s="21" t="s">
         <v>737</v>
       </c>
-      <c r="C41" s="21" t="s">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="21" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="21" t="s">
+      <c r="C42" s="21" t="s">
         <v>739</v>
       </c>
-      <c r="C42" s="21" t="s">
-        <v>740</v>
-      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="21" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="21" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="21" t="s">
+      <c r="C44" s="21" t="s">
         <v>742</v>
       </c>
-      <c r="C44" s="21" t="s">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+      <c r="B45" s="21" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="21" t="s">
+      <c r="C45" s="21" t="s">
         <v>744</v>
       </c>
-      <c r="C45" s="21" t="s">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="21" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="21" t="s">
+      <c r="C46" s="21" t="s">
         <v>746</v>
       </c>
-      <c r="C46" s="21" t="s">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="24"/>
+      <c r="B47" s="21" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
-      <c r="B47" s="21" t="s">
+      <c r="C47" s="21" t="s">
         <v>748</v>
       </c>
-      <c r="C47" s="21" t="s">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" s="21" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="22"/>
-      <c r="B48" s="21" t="s">
+      <c r="C48" s="21" t="s">
         <v>750</v>
       </c>
-      <c r="C48" s="21" t="s">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="B49" s="21" t="s">
         <v>752</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="C49" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="C49" s="21" t="s">
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="24"/>
+      <c r="B50" s="21" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="21" t="s">
+      <c r="C50" s="21" t="s">
         <v>755</v>
       </c>
-      <c r="C50" s="21" t="s">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
+      <c r="B51" s="21" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="21" t="s">
+      <c r="C51" s="21" t="s">
         <v>757</v>
       </c>
-      <c r="C51" s="21" t="s">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="21" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="21" t="s">
+      <c r="C52" s="21" t="s">
         <v>759</v>
       </c>
-      <c r="C52" s="21" t="s">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="21" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
-      <c r="B53" s="21" t="s">
+      <c r="C53" s="21" t="s">
         <v>761</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>762</v>
-      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="21" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="21" t="s">
+      <c r="C55" s="21" t="s">
         <v>764</v>
       </c>
-      <c r="C55" s="21" t="s">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="B56" s="21" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="21" t="s">
+      <c r="C56" s="21" t="s">
         <v>766</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F58" s="17" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F59" s="17" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F60" s="17" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F61" s="17" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F62" s="17" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D21:D23"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="E21:E23"/>
     <mergeCell ref="A38:A42"/>
@@ -7586,6 +7980,11 @@
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="D33:D35"/>
     <mergeCell ref="E33:E35"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D21:D23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7595,10 +7994,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7618,10 +8017,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>858</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7637,7 +8036,7 @@
         <v>627</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7645,7 +8044,7 @@
         <v>626</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7669,7 +8068,7 @@
         <v>132</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7677,7 +8076,7 @@
         <v>625</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7743,7 +8142,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7926,26 +8325,26 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -7953,7 +8352,7 @@
         <v>162</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>163</v>
@@ -8106,7 +8505,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -8164,7 +8563,7 @@
         <v>241</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>242</v>
@@ -8191,7 +8590,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -8234,124 +8633,193 @@
         <v>547</v>
       </c>
     </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>853</v>
+        <v>869</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>872</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>373</v>
+        <v>870</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>853</v>
+        <v>873</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>375</v>
+        <v>874</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>380</v>
+        <v>875</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>376</v>
+        <v>877</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>380</v>
+        <v>876</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>378</v>
+        <v>879</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>380</v>
+        <v>878</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>362</v>
+        <v>880</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>380</v>
+        <v>881</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>365</v>
+        <v>882</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>380</v>
+        <v>883</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>380</v>
+        <v>866</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -8365,8 +8833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C228"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
